--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2816.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2816.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173788240301714</v>
+        <v>0.8977755904197693</v>
       </c>
       <c r="B1">
-        <v>2.441227375687352</v>
+        <v>1.791259407997131</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.308572292327881</v>
       </c>
       <c r="D1">
-        <v>2.364804841830463</v>
+        <v>3.486431360244751</v>
       </c>
       <c r="E1">
-        <v>1.232686075244318</v>
+        <v>1.501083374023438</v>
       </c>
     </row>
   </sheetData>
